--- a/auca/sem-1/intro-to-computer/excel sample/dash-board.xlsx
+++ b/auca/sem-1/intro-to-computer/excel sample/dash-board.xlsx
@@ -15,11 +15,11 @@
     <sheet name="DASHBOARD" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_Date_of_Birth">#N/A</definedName>
+    <definedName name="Slicer_Martial_Status">#N/A</definedName>
+    <definedName name="Slicer_Department">#N/A</definedName>
+    <definedName name="Slicer_Degree">#N/A</definedName>
     <definedName name="Slicer_Names">#N/A</definedName>
-    <definedName name="Slicer_Degree">#N/A</definedName>
-    <definedName name="Slicer_Department">#N/A</definedName>
-    <definedName name="Slicer_Martial_Status">#N/A</definedName>
-    <definedName name="Slicer_Date_of_Birth">#N/A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -138,9 +138,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -175,6 +175,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -183,8 +205,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,103 +302,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -318,49 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +336,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +390,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,79 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +521,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -532,26 +547,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,17 +587,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,133 +608,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,7 +743,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8269,14 +8269,219 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311785</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13722985" y="927735"/>
+          <a:ext cx="3084195" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>562610</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2239010" y="1009015"/>
+          <a:ext cx="2056765" cy="4820285"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>172085</xdr:rowOff>
     </xdr:to>
@@ -8286,7 +8491,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4333875" y="990600"/>
+        <a:off x="4391025" y="990600"/>
         <a:ext cx="4572000" cy="2800985"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8300,15 +8505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8316,8 +8521,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4324350" y="3829050"/>
-        <a:ext cx="4572000" cy="2114550"/>
+        <a:off x="4381500" y="3829050"/>
+        <a:ext cx="4572000" cy="2180590"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8330,7 +8535,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>808990</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -8347,8 +8552,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2485390" y="57150"/>
-          <a:ext cx="14297025" cy="819150"/>
+          <a:off x="1866900" y="57150"/>
+          <a:ext cx="14915515" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -8387,7 +8592,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>133985</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
@@ -8404,8 +8609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="6086475"/>
-          <a:ext cx="14229715" cy="819150"/>
+          <a:off x="1810385" y="6086475"/>
+          <a:ext cx="14895830" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -8543,15 +8748,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185420</xdr:rowOff>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>835025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8581,7 +8786,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2349500" y="947420"/>
+              <a:off x="2359025" y="1223645"/>
               <a:ext cx="1838325" cy="1033145"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8615,15 +8820,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114935</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8653,7 +8858,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2352675" y="2054225"/>
+              <a:off x="2343150" y="2311400"/>
               <a:ext cx="1838325" cy="918210"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8687,15 +8892,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
+      <xdr:colOff>688975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>831850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128270</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8725,7 +8930,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2355850" y="3067685"/>
+              <a:off x="2365375" y="3334385"/>
               <a:ext cx="1828800" cy="1251585"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8760,14 +8965,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>674370</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>826135</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8797,7 +9002,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2350770" y="4394200"/>
+              <a:off x="2350770" y="4660900"/>
               <a:ext cx="1828165" cy="842645"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8860,16 +9065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8899,8 +9104,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14712950" y="898525"/>
-              <a:ext cx="1828800" cy="5079365"/>
+              <a:off x="13893800" y="1127125"/>
+              <a:ext cx="2638425" cy="4164965"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8985,7 +9190,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date of Birth" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2005" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2001" maxValue="2005" count="5">
         <n v="2002"/>
         <n v="2003"/>
         <n v="2004"/>
@@ -9531,27 +9736,21 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Names" sourceName="Names">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Date_of_Birth" sourceName="Date of Birth">
   <pivotTables>
-    <pivotTable tabId="6" name="PivotTable2"/>
     <pivotTable tabId="3" name="PivotTable1"/>
     <pivotTable tabId="4" name="PivotTable2"/>
     <pivotTable tabId="5" name="PivotTable1"/>
+    <pivotTable tabId="6" name="PivotTable2"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="11">
-        <i x="10" s="1"/>
+      <items count="5">
         <i x="4" s="1"/>
-        <i x="3" s="1"/>
         <i x="0" s="1"/>
-        <i x="6" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="5" s="1"/>
-        <i x="9" s="1"/>
-        <i x="7" s="1"/>
-        <i x="8" s="1"/>
+        <i x="3" s="1"/>
       </items>
     </tabular>
   </data>
@@ -9560,7 +9759,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Degree" sourceName="Degree">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Martial_Status" sourceName="Martial Status">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable1"/>
     <pivotTable tabId="4" name="PivotTable2"/>
@@ -9584,6 +9783,7 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Department" sourceName="Department">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="5" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
@@ -9600,7 +9800,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Martial_Status" sourceName="Martial Status">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Degree" sourceName="Degree">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable1"/>
     <pivotTable tabId="4" name="PivotTable2"/>
@@ -9621,21 +9821,27 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Date_of_Birth" sourceName="Date of Birth">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Names" sourceName="Names">
   <pivotTables>
+    <pivotTable tabId="6" name="PivotTable2"/>
     <pivotTable tabId="3" name="PivotTable1"/>
     <pivotTable tabId="4" name="PivotTable2"/>
     <pivotTable tabId="5" name="PivotTable1"/>
-    <pivotTable tabId="6" name="PivotTable2"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="5">
+      <items count="11">
+        <i x="10" s="1"/>
         <i x="4" s="1"/>
+        <i x="3" s="1"/>
         <i x="0" s="1"/>
+        <i x="6" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="3" s="1"/>
+        <i x="5" s="1"/>
+        <i x="9" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -9928,7 +10134,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -9990,7 +10196,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -10060,7 +10266,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -10122,7 +10328,7 @@
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -10493,8 +10699,8 @@
   <sheetPr/>
   <dimension ref="E2:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>

--- a/auca/sem-1/intro-to-computer/excel sample/dash-board.xlsx
+++ b/auca/sem-1/intro-to-computer/excel sample/dash-board.xlsx
@@ -8275,10 +8275,10 @@
       <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>43180</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>796290</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8288,7 +8288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13722985" y="927735"/>
-          <a:ext cx="3084195" cy="4791075"/>
+          <a:ext cx="2999105" cy="4799965"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9066,15 +9066,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9104,7 +9104,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13893800" y="1127125"/>
+              <a:off x="13884275" y="1212850"/>
               <a:ext cx="2638425" cy="4164965"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10700,7 +10700,7 @@
   <dimension ref="E2:Q38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
